--- a/PLC_Test_App/test_1.xlsx
+++ b/PLC_Test_App/test_1.xlsx
@@ -32,9 +32,6 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>test_meta</t>
-  </si>
-  <si>
     <t>input_names</t>
   </si>
   <si>
@@ -239,16 +236,19 @@
     <t>test_case_1_output</t>
   </si>
   <si>
-    <t>test_case_1_hold</t>
-  </si>
-  <si>
     <t>test_case_2_input</t>
   </si>
   <si>
     <t>test_case_2_output</t>
   </si>
   <si>
-    <t>test_case_2_hold</t>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>plc_type</t>
+  </si>
+  <si>
+    <t>num_test_cases</t>
   </si>
 </sst>
 </file>
@@ -264,15 +264,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -280,12 +286,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,18 +325,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I33" totalsRowShown="0">
-  <autoFilter ref="A1:I33"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="test_meta"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:F35" totalsRowShown="0">
+  <autoFilter ref="A3:F35"/>
+  <tableColumns count="6">
     <tableColumn id="2" name="input_names"/>
     <tableColumn id="3" name="output_names"/>
     <tableColumn id="4" name="test_case_1_input"/>
     <tableColumn id="5" name="test_case_1_output"/>
-    <tableColumn id="6" name="test_case_1_hold"/>
     <tableColumn id="7" name="test_case_2_input"/>
     <tableColumn id="8" name="test_case_2_output"/>
-    <tableColumn id="9" name="test_case_2_hold"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -584,706 +602,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>0</v>
       </c>
     </row>
